--- a/FrancePredictions/ Alsace.xlsx
+++ b/FrancePredictions/ Alsace.xlsx
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.1107433339953416</v>
+        <v>0.892038098573684</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -446,7 +446,7 @@
         <v>0.8660254037844387</v>
       </c>
       <c r="F3">
-        <v>1.170193933546542</v>
+        <v>2.252323204874992</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -466,7 +466,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="F4">
-        <v>3.978080082535743</v>
+        <v>5.408834866285323</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -486,7 +486,7 @@
         <v>6.123233995736766e-17</v>
       </c>
       <c r="F5">
-        <v>7.947961137294769</v>
+        <v>9.943425682783126</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -506,7 +506,7 @@
         <v>-0.4999999999999998</v>
       </c>
       <c r="F6">
-        <v>12.28237254679203</v>
+        <v>15.70834969341755</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -526,7 +526,7 @@
         <v>-0.8660254037844385</v>
       </c>
       <c r="F7">
-        <v>16.13455467283726</v>
+        <v>21.21967391133308</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -546,7 +546,7 @@
         <v>-1</v>
       </c>
       <c r="F8">
-        <v>18.08186675965786</v>
+        <v>23.35737977087497</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -566,7 +566,7 @@
         <v>-0.8660254037844388</v>
       </c>
       <c r="F9">
-        <v>17.66694239139557</v>
+        <v>21.46868680179119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -586,7 +586,7 @@
         <v>-0.5000000000000004</v>
       </c>
       <c r="F10">
-        <v>14.89695964217186</v>
+        <v>15.95251893162727</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -606,7 +606,7 @@
         <v>-1.83697019872103e-16</v>
       </c>
       <c r="F11">
-        <v>10.99659592270851</v>
+        <v>10.24611206710339</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -626,7 +626,7 @@
         <v>0.4999999999999993</v>
       </c>
       <c r="F12">
-        <v>6.400827593207358</v>
+        <v>5.202906808853148</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -646,7 +646,7 @@
         <v>0.8660254037844384</v>
       </c>
       <c r="F13">
-        <v>2.62531811505556</v>
+        <v>2.112870632708072</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.9421826457977288</v>
+        <v>1.051705635190009</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -686,7 +686,7 @@
         <v>0.8660254037844387</v>
       </c>
       <c r="F15">
-        <v>1.900268896520137</v>
+        <v>3.079692756235599</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -706,7 +706,7 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="F16">
-        <v>4.591362935900687</v>
+        <v>7.035930553674697</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -726,7 +726,7 @@
         <v>6.123233995736766e-17</v>
       </c>
       <c r="F17">
-        <v>8.276204160451888</v>
+        <v>12.97544819772243</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -746,7 +746,7 @@
         <v>-0.4999999999999998</v>
       </c>
       <c r="F18">
-        <v>12.25034253060818</v>
+        <v>20.17345777213573</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -766,7 +766,7 @@
         <v>-0.8660254037844385</v>
       </c>
       <c r="F19">
-        <v>15.87029156148434</v>
+        <v>25.80858282804489</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -786,7 +786,7 @@
         <v>-1</v>
       </c>
       <c r="F20">
-        <v>17.63821734845638</v>
+        <v>27.89409560322761</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -806,7 +806,7 @@
         <v>-0.8660254037844388</v>
       </c>
       <c r="F21">
-        <v>17.01055649578571</v>
+        <v>23.48328559458256</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -826,7 +826,7 @@
         <v>-0.5000000000000004</v>
       </c>
       <c r="F22">
-        <v>14.35938525855541</v>
+        <v>16.08128542363643</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -846,7 +846,7 @@
         <v>-1.83697019872103e-16</v>
       </c>
       <c r="F23">
-        <v>10.39312055468559</v>
+        <v>9.393913335204124</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -866,7 +866,7 @@
         <v>0.4999999999999993</v>
       </c>
       <c r="F24">
-        <v>5.94600409477949</v>
+        <v>4.158987762629985</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -886,7 +886,7 @@
         <v>0.8660254037844384</v>
       </c>
       <c r="F25">
-        <v>2.475675663948058</v>
+        <v>1.833310866951942</v>
       </c>
     </row>
   </sheetData>
